--- a/Data_frame/balancos_definitivos/BRIV4.xlsx
+++ b/Data_frame/balancos_definitivos/BRIV4.xlsx
@@ -17200,31 +17200,31 @@
         <v>421188.992</v>
       </c>
       <c r="AI58" t="n">
+        <v>556231.04</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>292852</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AK58" t="n">
         <v>220658</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AL58" t="n">
         <v>209483.008</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AM58" t="n">
         <v>396392.96</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AN58" t="n">
         <v>238403.008</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AO58" t="n">
         <v>230744</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AP58" t="n">
         <v>272468.992</v>
       </c>
-      <c r="AP58" t="n">
+      <c r="AQ58" t="n">
         <v>237273.024</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>214184.992</v>
       </c>
       <c r="AR58" t="n">
         <v>214184.992</v>
@@ -17353,31 +17353,31 @@
         <v>21255</v>
       </c>
       <c r="CH58" t="n">
+        <v>419139.008</v>
+      </c>
+      <c r="CI58" t="n">
         <v>487592.928</v>
       </c>
-      <c r="CI58" t="n">
+      <c r="CJ58" t="n">
         <v>275516</v>
       </c>
-      <c r="CJ58" t="n">
+      <c r="CK58" t="n">
         <v>892444.032</v>
       </c>
-      <c r="CK58" t="n">
+      <c r="CL58" t="n">
         <v>791254.976</v>
       </c>
-      <c r="CL58" t="n">
+      <c r="CM58" t="n">
         <v>751369.088</v>
       </c>
-      <c r="CM58" t="n">
+      <c r="CN58" t="n">
         <v>733523.968</v>
       </c>
-      <c r="CN58" t="n">
+      <c r="CO58" t="n">
         <v>729696</v>
       </c>
-      <c r="CO58" t="n">
+      <c r="CP58" t="n">
         <v>895382.0159999999</v>
-      </c>
-      <c r="CP58" t="n">
-        <v>719520</v>
       </c>
       <c r="CQ58" t="n">
         <v>719520</v>
@@ -17489,31 +17489,31 @@
         <v>-393088</v>
       </c>
       <c r="AI59" t="n">
+        <v>-452532.032</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>-262560</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>-189426</v>
       </c>
-      <c r="AK59" t="n">
+      <c r="AL59" t="n">
         <v>-173792.992</v>
       </c>
-      <c r="AL59" t="n">
+      <c r="AM59" t="n">
         <v>-283889.984</v>
       </c>
-      <c r="AM59" t="n">
+      <c r="AN59" t="n">
         <v>-189932</v>
       </c>
-      <c r="AN59" t="n">
+      <c r="AO59" t="n">
         <v>-186180</v>
       </c>
-      <c r="AO59" t="n">
+      <c r="AP59" t="n">
         <v>-216520.992</v>
       </c>
-      <c r="AP59" t="n">
+      <c r="AQ59" t="n">
         <v>-176264.032</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>-188772</v>
       </c>
       <c r="AR59" t="n">
         <v>-188772</v>
@@ -17642,31 +17642,31 @@
         <v>31257</v>
       </c>
       <c r="CH59" t="n">
+        <v>-377734.016</v>
+      </c>
+      <c r="CI59" t="n">
         <v>-458587.968</v>
       </c>
-      <c r="CI59" t="n">
+      <c r="CJ59" t="n">
         <v>-235900</v>
       </c>
-      <c r="CJ59" t="n">
+      <c r="CK59" t="n">
         <v>-844428.032</v>
       </c>
-      <c r="CK59" t="n">
+      <c r="CL59" t="n">
         <v>-711283.968</v>
       </c>
-      <c r="CL59" t="n">
+      <c r="CM59" t="n">
         <v>-747913.856</v>
       </c>
-      <c r="CM59" t="n">
+      <c r="CN59" t="n">
         <v>-728374.0159999999</v>
       </c>
-      <c r="CN59" t="n">
+      <c r="CO59" t="n">
         <v>-686873.9840000001</v>
       </c>
-      <c r="CO59" t="n">
+      <c r="CP59" t="n">
         <v>-868883.008</v>
-      </c>
-      <c r="CP59" t="n">
-        <v>-788768.064</v>
       </c>
       <c r="CQ59" t="n">
         <v>-788768.064</v>
@@ -17778,31 +17778,31 @@
         <v>28101</v>
       </c>
       <c r="AI60" t="n">
+        <v>103699</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>30292</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK60" t="n">
         <v>31232</v>
       </c>
-      <c r="AK60" t="n">
+      <c r="AL60" t="n">
         <v>35690</v>
       </c>
-      <c r="AL60" t="n">
+      <c r="AM60" t="n">
         <v>112502.992</v>
       </c>
-      <c r="AM60" t="n">
+      <c r="AN60" t="n">
         <v>48471</v>
       </c>
-      <c r="AN60" t="n">
+      <c r="AO60" t="n">
         <v>44564</v>
       </c>
-      <c r="AO60" t="n">
+      <c r="AP60" t="n">
         <v>55948</v>
       </c>
-      <c r="AP60" t="n">
+      <c r="AQ60" t="n">
         <v>61009</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>25413</v>
       </c>
       <c r="AR60" t="n">
         <v>25413</v>
@@ -17931,31 +17931,31 @@
         <v>52512</v>
       </c>
       <c r="CH60" t="n">
+        <v>41405</v>
+      </c>
+      <c r="CI60" t="n">
         <v>29005.008</v>
       </c>
-      <c r="CI60" t="n">
+      <c r="CJ60" t="n">
         <v>39616</v>
       </c>
-      <c r="CJ60" t="n">
+      <c r="CK60" t="n">
         <v>48016</v>
       </c>
-      <c r="CK60" t="n">
+      <c r="CL60" t="n">
         <v>79971</v>
       </c>
-      <c r="CL60" t="n">
+      <c r="CM60" t="n">
         <v>3455</v>
       </c>
-      <c r="CM60" t="n">
+      <c r="CN60" t="n">
         <v>5150</v>
       </c>
-      <c r="CN60" t="n">
+      <c r="CO60" t="n">
         <v>42822</v>
       </c>
-      <c r="CO60" t="n">
+      <c r="CP60" t="n">
         <v>26499</v>
-      </c>
-      <c r="CP60" t="n">
-        <v>-69248</v>
       </c>
       <c r="CQ60" t="n">
         <v>-69248</v>
@@ -18067,31 +18067,31 @@
         <v>-1796</v>
       </c>
       <c r="AI61" t="n">
+        <v>2472</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>-5053</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>-12913</v>
       </c>
-      <c r="AK61" t="n">
+      <c r="AL61" t="n">
         <v>-4549</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
         <v>-81850</v>
       </c>
-      <c r="AM61" t="n">
+      <c r="AN61" t="n">
         <v>-6115</v>
       </c>
-      <c r="AN61" t="n">
+      <c r="AO61" t="n">
         <v>-14707</v>
       </c>
-      <c r="AO61" t="n">
+      <c r="AP61" t="n">
         <v>-28666</v>
       </c>
-      <c r="AP61" t="n">
+      <c r="AQ61" t="n">
         <v>-49239</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>-7173</v>
       </c>
       <c r="AR61" t="n">
         <v>-7173</v>
@@ -18330,31 +18330,31 @@
         <v>7191</v>
       </c>
       <c r="AI62" t="n">
+        <v>25341</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>4820</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AK62" t="n">
         <v>5773</v>
       </c>
-      <c r="AK62" t="n">
+      <c r="AL62" t="n">
         <v>6647</v>
       </c>
-      <c r="AL62" t="n">
+      <c r="AM62" t="n">
         <v>18235</v>
       </c>
-      <c r="AM62" t="n">
+      <c r="AN62" t="n">
         <v>7857</v>
       </c>
-      <c r="AN62" t="n">
+      <c r="AO62" t="n">
         <v>7594</v>
       </c>
-      <c r="AO62" t="n">
+      <c r="AP62" t="n">
         <v>7374</v>
       </c>
-      <c r="AP62" t="n">
+      <c r="AQ62" t="n">
         <v>4689</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>5969</v>
       </c>
       <c r="AR62" t="n">
         <v>5969</v>
@@ -18483,31 +18483,31 @@
         <v>13948</v>
       </c>
       <c r="CH62" t="n">
+        <v>15973</v>
+      </c>
+      <c r="CI62" t="n">
         <v>25875</v>
       </c>
-      <c r="CI62" t="n">
+      <c r="CJ62" t="n">
         <v>15175</v>
       </c>
-      <c r="CJ62" t="n">
+      <c r="CK62" t="n">
         <v>17488</v>
       </c>
-      <c r="CK62" t="n">
+      <c r="CL62" t="n">
         <v>20247</v>
       </c>
-      <c r="CL62" t="n">
+      <c r="CM62" t="n">
         <v>19899</v>
       </c>
-      <c r="CM62" t="n">
+      <c r="CN62" t="n">
         <v>16924</v>
       </c>
-      <c r="CN62" t="n">
+      <c r="CO62" t="n">
         <v>19404</v>
       </c>
-      <c r="CO62" t="n">
+      <c r="CP62" t="n">
         <v>21399</v>
-      </c>
-      <c r="CP62" t="n">
-        <v>16698</v>
       </c>
       <c r="CQ62" t="n">
         <v>16698</v>
@@ -18619,31 +18619,31 @@
         <v>-11547</v>
       </c>
       <c r="AI63" t="n">
+        <v>-26278</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>-10683</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>-11032</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AL63" t="n">
         <v>-10920</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AM63" t="n">
         <v>-28119</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AN63" t="n">
         <v>-15177</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AO63" t="n">
         <v>-16297</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AP63" t="n">
         <v>-15172</v>
       </c>
-      <c r="AP63" t="n">
+      <c r="AQ63" t="n">
         <v>-21232</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-12671</v>
       </c>
       <c r="AR63" t="n">
         <v>-12671</v>
@@ -18772,31 +18772,31 @@
         <v>-29428</v>
       </c>
       <c r="CH63" t="n">
+        <v>-28381</v>
+      </c>
+      <c r="CI63" t="n">
         <v>-26243</v>
       </c>
-      <c r="CI63" t="n">
+      <c r="CJ63" t="n">
         <v>-28845</v>
       </c>
-      <c r="CJ63" t="n">
+      <c r="CK63" t="n">
         <v>-26190</v>
       </c>
-      <c r="CK63" t="n">
+      <c r="CL63" t="n">
         <v>-30473</v>
       </c>
-      <c r="CL63" t="n">
+      <c r="CM63" t="n">
         <v>-31332</v>
       </c>
-      <c r="CM63" t="n">
+      <c r="CN63" t="n">
         <v>-34799</v>
       </c>
-      <c r="CN63" t="n">
+      <c r="CO63" t="n">
         <v>-34020</v>
       </c>
-      <c r="CO63" t="n">
+      <c r="CP63" t="n">
         <v>-33187</v>
-      </c>
-      <c r="CP63" t="n">
-        <v>-35505.008</v>
       </c>
       <c r="CQ63" t="n">
         <v>-35505.008</v>
@@ -18908,31 +18908,31 @@
         <v>-8298</v>
       </c>
       <c r="AI64" t="n">
+        <v>-39155</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>-6743</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AK64" t="n">
         <v>-6886</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AL64" t="n">
         <v>-8375</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AM64" t="n">
         <v>-28107</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AN64" t="n">
         <v>-13910</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AO64" t="n">
         <v>-11252</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AP64" t="n">
         <v>-15505</v>
       </c>
-      <c r="AP64" t="n">
+      <c r="AQ64" t="n">
         <v>-16555</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>-7733</v>
       </c>
       <c r="AR64" t="n">
         <v>-7733</v>
@@ -19061,31 +19061,31 @@
         <v>-10916</v>
       </c>
       <c r="CH64" t="n">
+        <v>-10629</v>
+      </c>
+      <c r="CI64" t="n">
         <v>-13718</v>
       </c>
-      <c r="CI64" t="n">
+      <c r="CJ64" t="n">
         <v>-12834</v>
       </c>
-      <c r="CJ64" t="n">
+      <c r="CK64" t="n">
         <v>-13494</v>
       </c>
-      <c r="CK64" t="n">
+      <c r="CL64" t="n">
         <v>-13220</v>
       </c>
-      <c r="CL64" t="n">
+      <c r="CM64" t="n">
         <v>-14017</v>
       </c>
-      <c r="CM64" t="n">
+      <c r="CN64" t="n">
         <v>-12390</v>
       </c>
-      <c r="CN64" t="n">
+      <c r="CO64" t="n">
         <v>-13088</v>
       </c>
-      <c r="CO64" t="n">
+      <c r="CP64" t="n">
         <v>-15426</v>
-      </c>
-      <c r="CP64" t="n">
-        <v>-13583</v>
       </c>
       <c r="CQ64" t="n">
         <v>-13583</v>
@@ -19197,31 +19197,31 @@
         <v>-481</v>
       </c>
       <c r="AI65" t="n">
+        <v>-5046</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>-267</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AK65" t="n">
         <v>-287</v>
       </c>
-      <c r="AK65" t="n">
+      <c r="AL65" t="n">
         <v>-338</v>
       </c>
-      <c r="AL65" t="n">
+      <c r="AM65" t="n">
         <v>-5401</v>
       </c>
-      <c r="AM65" t="n">
+      <c r="AN65" t="n">
         <v>-1837</v>
       </c>
-      <c r="AN65" t="n">
+      <c r="AO65" t="n">
         <v>-2459</v>
       </c>
-      <c r="AO65" t="n">
+      <c r="AP65" t="n">
         <v>-1786</v>
       </c>
-      <c r="AP65" t="n">
+      <c r="AQ65" t="n">
         <v>6082</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>-337</v>
       </c>
       <c r="AR65" t="n">
         <v>-337</v>
@@ -19350,31 +19350,31 @@
         <v>-3704</v>
       </c>
       <c r="CH65" t="n">
+        <v>-4021</v>
+      </c>
+      <c r="CI65" t="n">
         <v>-4537</v>
       </c>
-      <c r="CI65" t="n">
+      <c r="CJ65" t="n">
         <v>-2799</v>
       </c>
-      <c r="CJ65" t="n">
+      <c r="CK65" t="n">
         <v>-4746</v>
       </c>
-      <c r="CK65" t="n">
+      <c r="CL65" t="n">
         <v>-5092</v>
       </c>
-      <c r="CL65" t="n">
+      <c r="CM65" t="n">
         <v>-5903</v>
       </c>
-      <c r="CM65" t="n">
+      <c r="CN65" t="n">
         <v>-4660</v>
       </c>
-      <c r="CN65" t="n">
+      <c r="CO65" t="n">
         <v>-3184</v>
       </c>
-      <c r="CO65" t="n">
+      <c r="CP65" t="n">
         <v>-4012</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>-4310</v>
       </c>
       <c r="CQ65" t="n">
         <v>-4310</v>
@@ -19486,31 +19486,31 @@
         <v>166</v>
       </c>
       <c r="AI66" t="n">
+        <v>113957</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>632</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AK66" t="n">
         <v>623</v>
       </c>
-      <c r="AK66" t="n">
+      <c r="AL66" t="n">
         <v>926</v>
       </c>
-      <c r="AL66" t="n">
+      <c r="AM66" t="n">
         <v>33617</v>
       </c>
-      <c r="AM66" t="n">
+      <c r="AN66" t="n">
         <v>36448</v>
       </c>
-      <c r="AN66" t="n">
+      <c r="AO66" t="n">
         <v>17396</v>
       </c>
-      <c r="AO66" t="n">
+      <c r="AP66" t="n">
         <v>3692</v>
       </c>
-      <c r="AP66" t="n">
+      <c r="AQ66" t="n">
         <v>14584</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>3354</v>
       </c>
       <c r="AR66" t="n">
         <v>3354</v>
@@ -19639,31 +19639,31 @@
         <v>610</v>
       </c>
       <c r="CH66" t="n">
+        <v>1848</v>
+      </c>
+      <c r="CI66" t="n">
         <v>-1631</v>
       </c>
-      <c r="CI66" t="n">
+      <c r="CJ66" t="n">
         <v>1200</v>
       </c>
-      <c r="CJ66" t="n">
+      <c r="CK66" t="n">
         <v>722</v>
       </c>
-      <c r="CK66" t="n">
+      <c r="CL66" t="n">
         <v>694</v>
       </c>
-      <c r="CL66" t="n">
+      <c r="CM66" t="n">
         <v>1243</v>
       </c>
-      <c r="CM66" t="n">
+      <c r="CN66" t="n">
         <v>3410</v>
       </c>
-      <c r="CN66" t="n">
+      <c r="CO66" t="n">
         <v>696</v>
       </c>
-      <c r="CO66" t="n">
+      <c r="CP66" t="n">
         <v>1093</v>
-      </c>
-      <c r="CP66" t="n">
-        <v>1390</v>
       </c>
       <c r="CQ66" t="n">
         <v>1390</v>
@@ -19775,31 +19775,31 @@
         <v>-3372</v>
       </c>
       <c r="AI67" t="n">
+        <v>-12961</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>-3627</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>-8625</v>
       </c>
-      <c r="AK67" t="n">
+      <c r="AL67" t="n">
         <v>-3728</v>
       </c>
-      <c r="AL67" t="n">
+      <c r="AM67" t="n">
         <v>-42500</v>
       </c>
-      <c r="AM67" t="n">
+      <c r="AN67" t="n">
         <v>-19496</v>
       </c>
-      <c r="AN67" t="n">
+      <c r="AO67" t="n">
         <v>-9689</v>
       </c>
-      <c r="AO67" t="n">
+      <c r="AP67" t="n">
         <v>-7269</v>
       </c>
-      <c r="AP67" t="n">
+      <c r="AQ67" t="n">
         <v>-36807</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>-4682</v>
       </c>
       <c r="AR67" t="n">
         <v>-4682</v>
@@ -19928,31 +19928,31 @@
         <v>-8666</v>
       </c>
       <c r="CH67" t="n">
+        <v>-7665</v>
+      </c>
+      <c r="CI67" t="n">
         <v>-6123</v>
       </c>
-      <c r="CI67" t="n">
+      <c r="CJ67" t="n">
         <v>-6334</v>
       </c>
-      <c r="CJ67" t="n">
+      <c r="CK67" t="n">
         <v>-3488</v>
       </c>
-      <c r="CK67" t="n">
+      <c r="CL67" t="n">
         <v>-902</v>
       </c>
-      <c r="CL67" t="n">
+      <c r="CM67" t="n">
         <v>-1172</v>
       </c>
-      <c r="CM67" t="n">
+      <c r="CN67" t="n">
         <v>-785</v>
       </c>
-      <c r="CN67" t="n">
+      <c r="CO67" t="n">
         <v>-3988</v>
       </c>
-      <c r="CO67" t="n">
+      <c r="CP67" t="n">
         <v>-2007</v>
-      </c>
-      <c r="CP67" t="n">
-        <v>-1271</v>
       </c>
       <c r="CQ67" t="n">
         <v>-1271</v>
@@ -20064,20 +20064,20 @@
         <v>14545</v>
       </c>
       <c r="AI68" t="n">
+        <v>-53386</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>10815</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>7521</v>
       </c>
-      <c r="AK68" t="n">
+      <c r="AL68" t="n">
         <v>11239</v>
       </c>
-      <c r="AL68" t="n">
+      <c r="AM68" t="n">
         <v>-29575</v>
       </c>
-      <c r="AM68" t="n">
-        <v>0</v>
-      </c>
       <c r="AN68" t="n">
         <v>0</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" t="n">
-        <v>8927</v>
+        <v>0</v>
       </c>
       <c r="AR68" t="n">
         <v>8927</v>
@@ -20217,31 +20217,31 @@
         <v>12295</v>
       </c>
       <c r="CH68" t="n">
+        <v>9221</v>
+      </c>
+      <c r="CI68" t="n">
         <v>16229</v>
       </c>
-      <c r="CI68" t="n">
+      <c r="CJ68" t="n">
         <v>14366</v>
       </c>
-      <c r="CJ68" t="n">
+      <c r="CK68" t="n">
         <v>23912</v>
       </c>
-      <c r="CK68" t="n">
+      <c r="CL68" t="n">
         <v>22302</v>
       </c>
-      <c r="CL68" t="n">
+      <c r="CM68" t="n">
         <v>31087</v>
       </c>
-      <c r="CM68" t="n">
+      <c r="CN68" t="n">
         <v>19821</v>
       </c>
-      <c r="CN68" t="n">
+      <c r="CO68" t="n">
         <v>23595</v>
       </c>
-      <c r="CO68" t="n">
+      <c r="CP68" t="n">
         <v>23413</v>
-      </c>
-      <c r="CP68" t="n">
-        <v>26776</v>
       </c>
       <c r="CQ68" t="n">
         <v>26776</v>
@@ -20353,31 +20353,31 @@
         <v>26305</v>
       </c>
       <c r="AI69" t="n">
+        <v>106171</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>25239</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>18319</v>
       </c>
-      <c r="AK69" t="n">
+      <c r="AL69" t="n">
         <v>31141</v>
       </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
         <v>30653</v>
       </c>
-      <c r="AM69" t="n">
+      <c r="AN69" t="n">
         <v>42356</v>
       </c>
-      <c r="AN69" t="n">
+      <c r="AO69" t="n">
         <v>29857</v>
       </c>
-      <c r="AO69" t="n">
+      <c r="AP69" t="n">
         <v>27282</v>
       </c>
-      <c r="AP69" t="n">
+      <c r="AQ69" t="n">
         <v>11770</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>18240</v>
       </c>
       <c r="AR69" t="n">
         <v>18240</v>
@@ -20616,20 +20616,20 @@
         <v>25</v>
       </c>
       <c r="AI70" t="n">
+        <v>-54</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>139</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
         <v>1290</v>
       </c>
-      <c r="AK70" t="n">
+      <c r="AL70" t="n">
         <v>700</v>
       </c>
-      <c r="AL70" t="n">
+      <c r="AM70" t="n">
         <v>-2129</v>
       </c>
-      <c r="AM70" t="n">
-        <v>0</v>
-      </c>
       <c r="AN70" t="n">
         <v>0</v>
       </c>
@@ -20637,10 +20637,10 @@
         <v>0</v>
       </c>
       <c r="AP70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ70" t="n">
         <v>-34416</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>112</v>
       </c>
       <c r="AR70" t="n">
         <v>112</v>
@@ -20879,20 +20879,20 @@
         <v>25</v>
       </c>
       <c r="AI71" t="n">
+        <v>-54</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>139</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AK71" t="n">
         <v>1290</v>
       </c>
-      <c r="AK71" t="n">
+      <c r="AL71" t="n">
         <v>700</v>
       </c>
-      <c r="AL71" t="n">
+      <c r="AM71" t="n">
         <v>-2129</v>
       </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
       <c r="AN71" t="n">
         <v>0</v>
       </c>
@@ -20900,10 +20900,10 @@
         <v>0</v>
       </c>
       <c r="AP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>-54476</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>118</v>
       </c>
       <c r="AR71" t="n">
         <v>118</v>
@@ -21163,10 +21163,10 @@
         <v>0</v>
       </c>
       <c r="AP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ72" t="n">
         <v>20060</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>-6</v>
       </c>
       <c r="AR72" t="n">
         <v>-6</v>
@@ -21405,31 +21405,31 @@
         <v>26330</v>
       </c>
       <c r="AI73" t="n">
+        <v>106117</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>25378</v>
       </c>
-      <c r="AJ73" t="n">
+      <c r="AK73" t="n">
         <v>19609</v>
       </c>
-      <c r="AK73" t="n">
+      <c r="AL73" t="n">
         <v>31841</v>
       </c>
-      <c r="AL73" t="n">
+      <c r="AM73" t="n">
         <v>28524</v>
       </c>
-      <c r="AM73" t="n">
+      <c r="AN73" t="n">
         <v>42356</v>
       </c>
-      <c r="AN73" t="n">
+      <c r="AO73" t="n">
         <v>29857</v>
       </c>
-      <c r="AO73" t="n">
+      <c r="AP73" t="n">
         <v>27282</v>
       </c>
-      <c r="AP73" t="n">
+      <c r="AQ73" t="n">
         <v>-22646</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>18352</v>
       </c>
       <c r="AR73" t="n">
         <v>18352</v>
@@ -21558,31 +21558,31 @@
         <v>26651</v>
       </c>
       <c r="CH73" t="n">
+        <v>17751</v>
+      </c>
+      <c r="CI73" t="n">
         <v>18813</v>
       </c>
-      <c r="CI73" t="n">
+      <c r="CJ73" t="n">
         <v>19545</v>
       </c>
-      <c r="CJ73" t="n">
+      <c r="CK73" t="n">
         <v>42220</v>
       </c>
-      <c r="CK73" t="n">
+      <c r="CL73" t="n">
         <v>73527</v>
       </c>
-      <c r="CL73" t="n">
+      <c r="CM73" t="n">
         <v>3260</v>
       </c>
-      <c r="CM73" t="n">
+      <c r="CN73" t="n">
         <v>-7329</v>
       </c>
-      <c r="CN73" t="n">
+      <c r="CO73" t="n">
         <v>32237</v>
       </c>
-      <c r="CO73" t="n">
+      <c r="CP73" t="n">
         <v>17772</v>
-      </c>
-      <c r="CP73" t="n">
-        <v>-79053</v>
       </c>
       <c r="CQ73" t="n">
         <v>-79053</v>
@@ -21694,31 +21694,31 @@
         <v>-9278</v>
       </c>
       <c r="AI74" t="n">
+        <v>-64007</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>3340</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>1889</v>
       </c>
-      <c r="AK74" t="n">
+      <c r="AL74" t="n">
         <v>-9078</v>
       </c>
-      <c r="AL74" t="n">
+      <c r="AM74" t="n">
         <v>-19053</v>
       </c>
-      <c r="AM74" t="n">
+      <c r="AN74" t="n">
         <v>-22300</v>
       </c>
-      <c r="AN74" t="n">
+      <c r="AO74" t="n">
         <v>-10530</v>
       </c>
-      <c r="AO74" t="n">
+      <c r="AP74" t="n">
         <v>-8645</v>
       </c>
-      <c r="AP74" t="n">
+      <c r="AQ74" t="n">
         <v>41475</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-3405</v>
       </c>
       <c r="AR74" t="n">
         <v>-3405</v>
@@ -21847,31 +21847,31 @@
         <v>-566</v>
       </c>
       <c r="CH74" t="n">
+        <v>-3700</v>
+      </c>
+      <c r="CI74" t="n">
         <v>-1568</v>
       </c>
-      <c r="CI74" t="n">
+      <c r="CJ74" t="n">
         <v>-1147</v>
       </c>
-      <c r="CJ74" t="n">
+      <c r="CK74" t="n">
         <v>1211</v>
       </c>
-      <c r="CK74" t="n">
+      <c r="CL74" t="n">
         <v>-18742</v>
       </c>
-      <c r="CL74" t="n">
+      <c r="CM74" t="n">
         <v>24410</v>
       </c>
-      <c r="CM74" t="n">
+      <c r="CN74" t="n">
         <v>14202</v>
       </c>
-      <c r="CN74" t="n">
+      <c r="CO74" t="n">
         <v>3974</v>
       </c>
-      <c r="CO74" t="n">
+      <c r="CP74" t="n">
         <v>5388</v>
-      </c>
-      <c r="CP74" t="n">
-        <v>55980</v>
       </c>
       <c r="CQ74" t="n">
         <v>55980</v>
@@ -21983,31 +21983,31 @@
         <v>5596</v>
       </c>
       <c r="AI75" t="n">
+        <v>11700</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>-7869</v>
       </c>
-      <c r="AJ75" t="n">
+      <c r="AK75" t="n">
         <v>1390</v>
       </c>
-      <c r="AK75" t="n">
+      <c r="AL75" t="n">
         <v>1185</v>
       </c>
-      <c r="AL75" t="n">
+      <c r="AM75" t="n">
         <v>10932</v>
       </c>
-      <c r="AM75" t="n">
+      <c r="AN75" t="n">
         <v>7656</v>
       </c>
-      <c r="AN75" t="n">
+      <c r="AO75" t="n">
         <v>7235</v>
       </c>
-      <c r="AO75" t="n">
+      <c r="AP75" t="n">
         <v>3897</v>
       </c>
-      <c r="AP75" t="n">
+      <c r="AQ75" t="n">
         <v>58061</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>-189</v>
       </c>
       <c r="AR75" t="n">
         <v>-189</v>
@@ -22246,31 +22246,31 @@
         <v>-793</v>
       </c>
       <c r="AI76" t="n">
+        <v>-854</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>-1253</v>
       </c>
-      <c r="AJ76" t="n">
+      <c r="AK76" t="n">
         <v>-795</v>
       </c>
-      <c r="AK76" t="n">
+      <c r="AL76" t="n">
         <v>-881</v>
       </c>
-      <c r="AL76" t="n">
+      <c r="AM76" t="n">
         <v>-2354</v>
       </c>
-      <c r="AM76" t="n">
+      <c r="AN76" t="n">
         <v>-1478</v>
       </c>
-      <c r="AN76" t="n">
+      <c r="AO76" t="n">
         <v>-1636</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AP76" t="n">
         <v>-1447</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AQ76" t="n">
         <v>-710</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>-1729</v>
       </c>
       <c r="AR76" t="n">
         <v>-1729</v>
@@ -22399,31 +22399,31 @@
         <v>-1598</v>
       </c>
       <c r="CH76" t="n">
+        <v>-1865</v>
+      </c>
+      <c r="CI76" t="n">
         <v>-2166</v>
       </c>
-      <c r="CI76" t="n">
+      <c r="CJ76" t="n">
         <v>-4561</v>
       </c>
-      <c r="CJ76" t="n">
+      <c r="CK76" t="n">
         <v>-7887</v>
       </c>
-      <c r="CK76" t="n">
+      <c r="CL76" t="n">
         <v>-6371</v>
       </c>
-      <c r="CL76" t="n">
+      <c r="CM76" t="n">
         <v>-6825</v>
       </c>
-      <c r="CM76" t="n">
+      <c r="CN76" t="n">
         <v>-4663</v>
       </c>
-      <c r="CN76" t="n">
+      <c r="CO76" t="n">
         <v>-7431</v>
       </c>
-      <c r="CO76" t="n">
+      <c r="CP76" t="n">
         <v>-7810</v>
-      </c>
-      <c r="CP76" t="n">
-        <v>-7412</v>
       </c>
       <c r="CQ76" t="n">
         <v>-7412</v>
@@ -22735,16 +22735,16 @@
       <c r="AJ78" t="inlineStr"/>
       <c r="AK78" t="inlineStr"/>
       <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="n">
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="n">
         <v>-1995</v>
       </c>
-      <c r="AN78" t="n">
+      <c r="AO78" t="n">
         <v>-2146</v>
       </c>
-      <c r="AO78" t="n">
+      <c r="AP78" t="n">
         <v>-2804</v>
       </c>
-      <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -22905,31 +22905,31 @@
         <v>21855</v>
       </c>
       <c r="AI79" t="n">
+        <v>23331</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>19596</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AK79" t="n">
         <v>22093</v>
       </c>
-      <c r="AK79" t="n">
+      <c r="AL79" t="n">
         <v>23067</v>
       </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
         <v>12027</v>
       </c>
-      <c r="AM79" t="n">
+      <c r="AN79" t="n">
         <v>24239</v>
       </c>
-      <c r="AN79" t="n">
+      <c r="AO79" t="n">
         <v>22780</v>
       </c>
-      <c r="AO79" t="n">
+      <c r="AP79" t="n">
         <v>18283</v>
       </c>
-      <c r="AP79" t="n">
+      <c r="AQ79" t="n">
         <v>16776</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>13029</v>
       </c>
       <c r="AR79" t="n">
         <v>13029</v>
@@ -23058,31 +23058,31 @@
         <v>24487</v>
       </c>
       <c r="CH79" t="n">
+        <v>12186</v>
+      </c>
+      <c r="CI79" t="n">
         <v>21128</v>
       </c>
-      <c r="CI79" t="n">
+      <c r="CJ79" t="n">
         <v>13837</v>
       </c>
-      <c r="CJ79" t="n">
+      <c r="CK79" t="n">
         <v>35544</v>
       </c>
-      <c r="CK79" t="n">
+      <c r="CL79" t="n">
         <v>48414</v>
       </c>
-      <c r="CL79" t="n">
+      <c r="CM79" t="n">
         <v>20845</v>
       </c>
-      <c r="CM79" t="n">
+      <c r="CN79" t="n">
         <v>2210</v>
       </c>
-      <c r="CN79" t="n">
+      <c r="CO79" t="n">
         <v>28780</v>
       </c>
-      <c r="CO79" t="n">
+      <c r="CP79" t="n">
         <v>15350</v>
-      </c>
-      <c r="CP79" t="n">
-        <v>-30485</v>
       </c>
       <c r="CQ79" t="n">
         <v>-30485</v>
